--- a/time_tables/full_time_undergraduate/lovs_1_kurs.xlsx
+++ b/time_tables/full_time_undergraduate/lovs_1_kurs.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
@@ -328,24 +328,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">ауд. 8 ИМиСТ
-ПРОФЕССИОНАЛЬНАЯ ЭТИКА - лекция
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="20"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>(к.п.н., доц. Белогородцева Э.И.)</t>
-    </r>
-  </si>
-  <si>
     <t>15.01
 22.01
 29.01</t>
@@ -656,15 +638,55 @@
       <t>(к.п.н. доц. Ушаков В.И.)</t>
     </r>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ауд. 8 ИМиСТ
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>21.01. - ауд.119</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+ПРОФЕССИОНАЛЬНАЯ ЭТИКА - лекция
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="20"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(к.п.н., доц. Белогородцева Э.И.)</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_р_._-;\-* #,##0.00_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_р_._-;\-* #,##0.00_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -830,6 +852,14 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1928,8 +1958,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="182">
@@ -2207,7 +2237,61 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="71" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="76" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="57" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2216,22 +2300,112 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="83" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="77" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="70" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="72" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="84" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="56" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="71" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="76" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="82" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="67" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="75" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="64" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="78" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="80" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="81" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="72" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="57" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="75" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2240,16 +2414,7 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2292,141 +2457,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="2" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="70" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="71" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="72" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="57" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="56" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="77" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="76" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="75" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="78" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="80" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="81" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="71" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="76" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="57" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="83" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="72" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="84" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="82" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="67" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="75" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="64" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2454,6 +2484,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2500,7 +2538,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2532,9 +2570,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2566,6 +2605,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -2741,17 +2781,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AB48"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="40" zoomScaleNormal="70" zoomScaleSheetLayoutView="40" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25:H25"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="40" zoomScaleNormal="70" zoomScaleSheetLayoutView="40" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17:N19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="23.25"/>
+  <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" style="1" customWidth="1"/>
@@ -2762,65 +2802,65 @@
     <col min="15" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="105" customHeight="1" thickBot="1">
+    <row r="1" spans="1:28" ht="105" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C1" s="2"/>
-      <c r="E1" s="123" t="s">
+      <c r="E1" s="168" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="123"/>
-      <c r="G1" s="123"/>
-      <c r="H1" s="123"/>
-      <c r="I1" s="123"/>
-      <c r="J1" s="123"/>
-      <c r="K1" s="123"/>
-      <c r="L1" s="123"/>
-      <c r="M1" s="123"/>
-      <c r="N1" s="123"/>
-    </row>
-    <row r="2" spans="1:28" ht="85.5" customHeight="1" thickBot="1">
+      <c r="F1" s="168"/>
+      <c r="G1" s="168"/>
+      <c r="H1" s="168"/>
+      <c r="I1" s="168"/>
+      <c r="J1" s="168"/>
+      <c r="K1" s="168"/>
+      <c r="L1" s="168"/>
+      <c r="M1" s="168"/>
+      <c r="N1" s="168"/>
+    </row>
+    <row r="2" spans="1:28" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="52"/>
       <c r="B2" s="53"/>
-      <c r="C2" s="124" t="s">
+      <c r="C2" s="169" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="125"/>
-      <c r="E2" s="126"/>
-      <c r="F2" s="126"/>
-      <c r="G2" s="126"/>
-      <c r="H2" s="126"/>
-      <c r="I2" s="126"/>
-      <c r="J2" s="126"/>
-      <c r="K2" s="126"/>
-      <c r="L2" s="126"/>
-      <c r="M2" s="126"/>
-      <c r="N2" s="127"/>
-    </row>
-    <row r="3" spans="1:28" ht="124.5" customHeight="1" thickBot="1">
+      <c r="D2" s="170"/>
+      <c r="E2" s="171"/>
+      <c r="F2" s="171"/>
+      <c r="G2" s="171"/>
+      <c r="H2" s="171"/>
+      <c r="I2" s="171"/>
+      <c r="J2" s="171"/>
+      <c r="K2" s="171"/>
+      <c r="L2" s="171"/>
+      <c r="M2" s="171"/>
+      <c r="N2" s="172"/>
+    </row>
+    <row r="3" spans="1:28" ht="124.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="90"/>
-      <c r="D3" s="128" t="s">
+      <c r="D3" s="173" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="129"/>
-      <c r="F3" s="129"/>
-      <c r="G3" s="129"/>
-      <c r="H3" s="129"/>
-      <c r="I3" s="129"/>
-      <c r="J3" s="129"/>
-      <c r="K3" s="129"/>
-      <c r="L3" s="129"/>
-      <c r="M3" s="129"/>
-      <c r="N3" s="130"/>
-    </row>
-    <row r="4" spans="1:28" ht="66" customHeight="1">
-      <c r="A4" s="131" t="s">
+      <c r="E3" s="174"/>
+      <c r="F3" s="174"/>
+      <c r="G3" s="174"/>
+      <c r="H3" s="174"/>
+      <c r="I3" s="174"/>
+      <c r="J3" s="174"/>
+      <c r="K3" s="174"/>
+      <c r="L3" s="174"/>
+      <c r="M3" s="174"/>
+      <c r="N3" s="175"/>
+    </row>
+    <row r="4" spans="1:28" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="176" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="133" t="s">
+      <c r="B4" s="178" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="135" t="s">
+      <c r="C4" s="180" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="54" t="s">
@@ -2857,10 +2897,10 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:28" s="7" customFormat="1" ht="169.5" customHeight="1" thickBot="1">
-      <c r="A5" s="132"/>
-      <c r="B5" s="134"/>
-      <c r="C5" s="136"/>
+    <row r="5" spans="1:28" s="7" customFormat="1" ht="169.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="177"/>
+      <c r="B5" s="179"/>
+      <c r="C5" s="181"/>
       <c r="D5" s="63" t="s">
         <v>28</v>
       </c>
@@ -2909,7 +2949,7 @@
       <c r="AA5" s="6"/>
       <c r="AB5" s="6"/>
     </row>
-    <row r="6" spans="1:28" s="7" customFormat="1" ht="4.5" hidden="1" customHeight="1">
+    <row r="6" spans="1:28" s="7" customFormat="1" ht="4.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="61"/>
       <c r="B6" s="32"/>
       <c r="C6" s="33"/>
@@ -2939,31 +2979,31 @@
       <c r="AA6" s="6"/>
       <c r="AB6" s="6"/>
     </row>
-    <row r="7" spans="1:28" s="10" customFormat="1" ht="121.5" customHeight="1" thickTop="1">
-      <c r="A7" s="111" t="s">
+    <row r="7" spans="1:28" s="10" customFormat="1" ht="121.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="108" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="137" t="s">
+      <c r="B7" s="164" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="86" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="138" t="s">
+      <c r="D7" s="132" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="139"/>
-      <c r="F7" s="139"/>
-      <c r="G7" s="139"/>
-      <c r="H7" s="139"/>
-      <c r="I7" s="140"/>
-      <c r="J7" s="141" t="s">
+      <c r="E7" s="133"/>
+      <c r="F7" s="133"/>
+      <c r="G7" s="133"/>
+      <c r="H7" s="133"/>
+      <c r="I7" s="134"/>
+      <c r="J7" s="135" t="s">
         <v>41</v>
       </c>
-      <c r="K7" s="142"/>
-      <c r="L7" s="142"/>
-      <c r="M7" s="142"/>
-      <c r="N7" s="143"/>
+      <c r="K7" s="141"/>
+      <c r="L7" s="141"/>
+      <c r="M7" s="141"/>
+      <c r="N7" s="142"/>
       <c r="O7" s="9"/>
       <c r="P7" s="9"/>
       <c r="Q7" s="9"/>
@@ -2979,25 +3019,25 @@
       <c r="AA7" s="9"/>
       <c r="AB7" s="9"/>
     </row>
-    <row r="8" spans="1:28" s="13" customFormat="1" ht="122.25" customHeight="1">
-      <c r="A8" s="112"/>
-      <c r="B8" s="117"/>
+    <row r="8" spans="1:28" s="13" customFormat="1" ht="122.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="109"/>
+      <c r="B8" s="165"/>
       <c r="C8" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="147" t="s">
+      <c r="D8" s="156" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="148"/>
-      <c r="F8" s="148"/>
-      <c r="G8" s="148"/>
-      <c r="H8" s="148"/>
-      <c r="I8" s="149"/>
-      <c r="J8" s="144"/>
-      <c r="K8" s="145"/>
-      <c r="L8" s="145"/>
-      <c r="M8" s="145"/>
-      <c r="N8" s="146"/>
+      <c r="E8" s="157"/>
+      <c r="F8" s="157"/>
+      <c r="G8" s="157"/>
+      <c r="H8" s="157"/>
+      <c r="I8" s="158"/>
+      <c r="J8" s="155"/>
+      <c r="K8" s="144"/>
+      <c r="L8" s="144"/>
+      <c r="M8" s="144"/>
+      <c r="N8" s="145"/>
       <c r="O8" s="12"/>
       <c r="P8" s="12"/>
       <c r="Q8" s="12"/>
@@ -3013,25 +3053,25 @@
       <c r="AA8" s="12"/>
       <c r="AB8" s="12"/>
     </row>
-    <row r="9" spans="1:28" s="13" customFormat="1" ht="128.25" customHeight="1">
-      <c r="A9" s="112"/>
-      <c r="B9" s="117"/>
+    <row r="9" spans="1:28" s="13" customFormat="1" ht="128.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="109"/>
+      <c r="B9" s="165"/>
       <c r="C9" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="150" t="s">
+      <c r="D9" s="126" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="109"/>
-      <c r="F9" s="109"/>
-      <c r="G9" s="109"/>
-      <c r="H9" s="109"/>
-      <c r="I9" s="110"/>
-      <c r="J9" s="144"/>
-      <c r="K9" s="145"/>
-      <c r="L9" s="145"/>
-      <c r="M9" s="145"/>
-      <c r="N9" s="146"/>
+      <c r="E9" s="127"/>
+      <c r="F9" s="127"/>
+      <c r="G9" s="127"/>
+      <c r="H9" s="127"/>
+      <c r="I9" s="128"/>
+      <c r="J9" s="155"/>
+      <c r="K9" s="144"/>
+      <c r="L9" s="144"/>
+      <c r="M9" s="144"/>
+      <c r="N9" s="145"/>
       <c r="O9" s="12"/>
       <c r="P9" s="12"/>
       <c r="U9" s="12"/>
@@ -3043,9 +3083,9 @@
       <c r="AA9" s="12"/>
       <c r="AB9" s="12"/>
     </row>
-    <row r="10" spans="1:28" s="13" customFormat="1" ht="118.5" customHeight="1">
-      <c r="A10" s="112"/>
-      <c r="B10" s="117"/>
+    <row r="10" spans="1:28" s="13" customFormat="1" ht="118.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="109"/>
+      <c r="B10" s="165"/>
       <c r="C10" s="11" t="s">
         <v>22</v>
       </c>
@@ -3054,13 +3094,13 @@
       <c r="F10" s="25"/>
       <c r="G10" s="25"/>
       <c r="H10" s="25"/>
-      <c r="J10" s="108" t="s">
-        <v>63</v>
-      </c>
-      <c r="K10" s="109"/>
-      <c r="L10" s="109"/>
-      <c r="M10" s="109"/>
-      <c r="N10" s="110"/>
+      <c r="J10" s="167" t="s">
+        <v>62</v>
+      </c>
+      <c r="K10" s="127"/>
+      <c r="L10" s="127"/>
+      <c r="M10" s="127"/>
+      <c r="N10" s="128"/>
       <c r="O10" s="12"/>
       <c r="P10" s="12"/>
       <c r="U10" s="12"/>
@@ -3072,9 +3112,9 @@
       <c r="AA10" s="12"/>
       <c r="AB10" s="12"/>
     </row>
-    <row r="11" spans="1:28" s="13" customFormat="1" ht="28.5" customHeight="1" thickBot="1">
-      <c r="A11" s="113"/>
-      <c r="B11" s="118"/>
+    <row r="11" spans="1:28" s="13" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="110"/>
+      <c r="B11" s="166"/>
       <c r="C11" s="14" t="s">
         <v>23</v>
       </c>
@@ -3098,31 +3138,31 @@
       <c r="AA11" s="12"/>
       <c r="AB11" s="12"/>
     </row>
-    <row r="12" spans="1:28" s="13" customFormat="1" ht="141" customHeight="1" thickTop="1">
-      <c r="A12" s="151" t="s">
+    <row r="12" spans="1:28" s="13" customFormat="1" ht="141" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="138" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="119" t="s">
+      <c r="B12" s="139" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="153" t="s">
+      <c r="D12" s="114" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="142"/>
-      <c r="F12" s="142"/>
-      <c r="G12" s="142"/>
-      <c r="H12" s="142"/>
-      <c r="I12" s="143"/>
-      <c r="J12" s="155" t="s">
+      <c r="E12" s="141"/>
+      <c r="F12" s="141"/>
+      <c r="G12" s="141"/>
+      <c r="H12" s="141"/>
+      <c r="I12" s="142"/>
+      <c r="J12" s="160" t="s">
         <v>45</v>
       </c>
-      <c r="K12" s="156"/>
-      <c r="L12" s="157"/>
-      <c r="M12" s="157"/>
-      <c r="N12" s="158"/>
+      <c r="K12" s="161"/>
+      <c r="L12" s="162"/>
+      <c r="M12" s="162"/>
+      <c r="N12" s="163"/>
       <c r="O12" s="12"/>
       <c r="P12" s="12"/>
       <c r="Q12" s="12"/>
@@ -3138,25 +3178,25 @@
       <c r="AA12" s="12"/>
       <c r="AB12" s="12"/>
     </row>
-    <row r="13" spans="1:28" s="10" customFormat="1" ht="141.75" customHeight="1">
-      <c r="A13" s="112"/>
-      <c r="B13" s="120"/>
+    <row r="13" spans="1:28" s="10" customFormat="1" ht="141.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="109"/>
+      <c r="B13" s="140"/>
       <c r="C13" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="154"/>
-      <c r="E13" s="145"/>
-      <c r="F13" s="145"/>
-      <c r="G13" s="145"/>
-      <c r="H13" s="145"/>
-      <c r="I13" s="146"/>
-      <c r="J13" s="150" t="s">
+      <c r="D13" s="143"/>
+      <c r="E13" s="144"/>
+      <c r="F13" s="144"/>
+      <c r="G13" s="144"/>
+      <c r="H13" s="144"/>
+      <c r="I13" s="145"/>
+      <c r="J13" s="126" t="s">
         <v>46</v>
       </c>
-      <c r="K13" s="109"/>
-      <c r="L13" s="109"/>
-      <c r="M13" s="109"/>
-      <c r="N13" s="110"/>
+      <c r="K13" s="127"/>
+      <c r="L13" s="127"/>
+      <c r="M13" s="127"/>
+      <c r="N13" s="128"/>
       <c r="O13" s="9"/>
       <c r="R13" s="9"/>
       <c r="S13" s="9"/>
@@ -3170,25 +3210,25 @@
       <c r="AA13" s="9"/>
       <c r="AB13" s="9"/>
     </row>
-    <row r="14" spans="1:28" s="13" customFormat="1" ht="133.5" customHeight="1">
-      <c r="A14" s="112"/>
-      <c r="B14" s="120"/>
+    <row r="14" spans="1:28" s="13" customFormat="1" ht="133.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="109"/>
+      <c r="B14" s="140"/>
       <c r="C14" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="154"/>
-      <c r="E14" s="145"/>
-      <c r="F14" s="145"/>
-      <c r="G14" s="145"/>
-      <c r="H14" s="145"/>
-      <c r="I14" s="146"/>
-      <c r="J14" s="155" t="s">
+      <c r="D14" s="143"/>
+      <c r="E14" s="144"/>
+      <c r="F14" s="144"/>
+      <c r="G14" s="144"/>
+      <c r="H14" s="144"/>
+      <c r="I14" s="145"/>
+      <c r="J14" s="160" t="s">
         <v>47</v>
       </c>
-      <c r="K14" s="157"/>
-      <c r="L14" s="157"/>
-      <c r="M14" s="157"/>
-      <c r="N14" s="158"/>
+      <c r="K14" s="162"/>
+      <c r="L14" s="162"/>
+      <c r="M14" s="162"/>
+      <c r="N14" s="163"/>
       <c r="O14" s="12"/>
       <c r="W14" s="12"/>
       <c r="X14" s="12"/>
@@ -3197,27 +3237,27 @@
       <c r="AA14" s="12"/>
       <c r="AB14" s="12"/>
     </row>
-    <row r="15" spans="1:28" s="13" customFormat="1" ht="123" customHeight="1">
-      <c r="A15" s="112"/>
-      <c r="B15" s="120"/>
+    <row r="15" spans="1:28" s="13" customFormat="1" ht="123" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="109"/>
+      <c r="B15" s="140"/>
       <c r="C15" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="150" t="s">
+      <c r="D15" s="126" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="127"/>
+      <c r="F15" s="127"/>
+      <c r="G15" s="127"/>
+      <c r="H15" s="127"/>
+      <c r="I15" s="128"/>
+      <c r="J15" s="123" t="s">
         <v>64</v>
       </c>
-      <c r="E15" s="109"/>
-      <c r="F15" s="109"/>
-      <c r="G15" s="109"/>
-      <c r="H15" s="109"/>
-      <c r="I15" s="110"/>
-      <c r="J15" s="159" t="s">
-        <v>48</v>
-      </c>
-      <c r="K15" s="160"/>
-      <c r="L15" s="160"/>
-      <c r="M15" s="160"/>
-      <c r="N15" s="161"/>
+      <c r="K15" s="124"/>
+      <c r="L15" s="124"/>
+      <c r="M15" s="124"/>
+      <c r="N15" s="125"/>
       <c r="O15" s="12"/>
       <c r="W15" s="12"/>
       <c r="X15" s="12"/>
@@ -3226,9 +3266,9 @@
       <c r="AA15" s="12"/>
       <c r="AB15" s="12"/>
     </row>
-    <row r="16" spans="1:28" s="13" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A16" s="152"/>
-      <c r="B16" s="121"/>
+    <row r="16" spans="1:28" s="13" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="130"/>
+      <c r="B16" s="159"/>
       <c r="C16" s="14" t="s">
         <v>23</v>
       </c>
@@ -3258,11 +3298,11 @@
       <c r="AA16" s="12"/>
       <c r="AB16" s="12"/>
     </row>
-    <row r="17" spans="1:28" s="13" customFormat="1" ht="54.75" customHeight="1" thickTop="1">
-      <c r="A17" s="162" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17" s="114" t="s">
+    <row r="17" spans="1:28" s="13" customFormat="1" ht="54.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="152" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="111" t="s">
         <v>15</v>
       </c>
       <c r="C17" s="8" t="s">
@@ -3273,13 +3313,13 @@
       <c r="F17" s="88"/>
       <c r="G17" s="88"/>
       <c r="H17" s="88"/>
-      <c r="J17" s="141" t="s">
+      <c r="J17" s="135" t="s">
         <v>41</v>
       </c>
-      <c r="K17" s="142"/>
-      <c r="L17" s="142"/>
-      <c r="M17" s="142"/>
-      <c r="N17" s="143"/>
+      <c r="K17" s="141"/>
+      <c r="L17" s="141"/>
+      <c r="M17" s="141"/>
+      <c r="N17" s="142"/>
       <c r="O17" s="12"/>
       <c r="P17" s="12"/>
       <c r="Q17" s="12"/>
@@ -3295,25 +3335,25 @@
       <c r="AA17" s="12"/>
       <c r="AB17" s="12"/>
     </row>
-    <row r="18" spans="1:28" s="13" customFormat="1" ht="109.5" customHeight="1">
-      <c r="A18" s="163"/>
-      <c r="B18" s="115"/>
+    <row r="18" spans="1:28" s="13" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="153"/>
+      <c r="B18" s="112"/>
       <c r="C18" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="150" t="s">
-        <v>50</v>
-      </c>
-      <c r="E18" s="109"/>
-      <c r="F18" s="109"/>
-      <c r="G18" s="109"/>
-      <c r="H18" s="109"/>
-      <c r="I18" s="110"/>
-      <c r="J18" s="144"/>
-      <c r="K18" s="145"/>
-      <c r="L18" s="145"/>
-      <c r="M18" s="145"/>
-      <c r="N18" s="146"/>
+      <c r="D18" s="126" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="127"/>
+      <c r="F18" s="127"/>
+      <c r="G18" s="127"/>
+      <c r="H18" s="127"/>
+      <c r="I18" s="128"/>
+      <c r="J18" s="155"/>
+      <c r="K18" s="144"/>
+      <c r="L18" s="144"/>
+      <c r="M18" s="144"/>
+      <c r="N18" s="145"/>
       <c r="O18" s="12"/>
       <c r="P18" s="12"/>
       <c r="Q18" s="12"/>
@@ -3329,25 +3369,25 @@
       <c r="AA18" s="12"/>
       <c r="AB18" s="12"/>
     </row>
-    <row r="19" spans="1:28" s="10" customFormat="1" ht="120" customHeight="1">
-      <c r="A19" s="163"/>
-      <c r="B19" s="115"/>
+    <row r="19" spans="1:28" s="10" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="153"/>
+      <c r="B19" s="112"/>
       <c r="C19" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="147" t="s">
-        <v>51</v>
-      </c>
-      <c r="E19" s="148"/>
-      <c r="F19" s="148"/>
-      <c r="G19" s="148"/>
-      <c r="H19" s="148"/>
-      <c r="I19" s="149"/>
-      <c r="J19" s="144"/>
-      <c r="K19" s="145"/>
-      <c r="L19" s="145"/>
-      <c r="M19" s="145"/>
-      <c r="N19" s="146"/>
+      <c r="D19" s="156" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="157"/>
+      <c r="F19" s="157"/>
+      <c r="G19" s="157"/>
+      <c r="H19" s="157"/>
+      <c r="I19" s="158"/>
+      <c r="J19" s="155"/>
+      <c r="K19" s="144"/>
+      <c r="L19" s="144"/>
+      <c r="M19" s="144"/>
+      <c r="N19" s="145"/>
       <c r="O19" s="9"/>
       <c r="P19" s="9"/>
       <c r="Q19" s="9"/>
@@ -3363,9 +3403,9 @@
       <c r="AA19" s="9"/>
       <c r="AB19" s="9"/>
     </row>
-    <row r="20" spans="1:28" s="10" customFormat="1" ht="50.25" customHeight="1">
-      <c r="A20" s="163"/>
-      <c r="B20" s="115"/>
+    <row r="20" spans="1:28" s="10" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="153"/>
+      <c r="B20" s="112"/>
       <c r="C20" s="11" t="s">
         <v>22</v>
       </c>
@@ -3394,9 +3434,9 @@
       <c r="AA20" s="9"/>
       <c r="AB20" s="9"/>
     </row>
-    <row r="21" spans="1:28" s="13" customFormat="1" ht="27.75" customHeight="1" thickBot="1">
-      <c r="A21" s="164"/>
-      <c r="B21" s="116"/>
+    <row r="21" spans="1:28" s="13" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="154"/>
+      <c r="B21" s="113"/>
       <c r="C21" s="14" t="s">
         <v>23</v>
       </c>
@@ -3422,31 +3462,31 @@
       <c r="AA21" s="12"/>
       <c r="AB21" s="12"/>
     </row>
-    <row r="22" spans="1:28" s="13" customFormat="1" ht="121.5" customHeight="1" thickTop="1">
-      <c r="A22" s="151" t="s">
-        <v>52</v>
-      </c>
-      <c r="B22" s="119" t="s">
+    <row r="22" spans="1:28" s="13" customFormat="1" ht="121.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="138" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="139" t="s">
         <v>16</v>
       </c>
       <c r="C22" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="153" t="s">
+      <c r="D22" s="114" t="s">
         <v>41</v>
       </c>
-      <c r="E22" s="142"/>
-      <c r="F22" s="142"/>
-      <c r="G22" s="142"/>
-      <c r="H22" s="142"/>
-      <c r="I22" s="143"/>
-      <c r="J22" s="176" t="s">
-        <v>53</v>
-      </c>
-      <c r="K22" s="177"/>
-      <c r="L22" s="177"/>
-      <c r="M22" s="177"/>
-      <c r="N22" s="178"/>
+      <c r="E22" s="141"/>
+      <c r="F22" s="141"/>
+      <c r="G22" s="141"/>
+      <c r="H22" s="141"/>
+      <c r="I22" s="142"/>
+      <c r="J22" s="146" t="s">
+        <v>52</v>
+      </c>
+      <c r="K22" s="147"/>
+      <c r="L22" s="147"/>
+      <c r="M22" s="147"/>
+      <c r="N22" s="148"/>
       <c r="O22" s="12"/>
       <c r="Q22" s="12"/>
       <c r="R22" s="12"/>
@@ -3461,25 +3501,25 @@
       <c r="AA22" s="12"/>
       <c r="AB22" s="12"/>
     </row>
-    <row r="23" spans="1:28" s="13" customFormat="1" ht="129.75" customHeight="1">
-      <c r="A23" s="112"/>
-      <c r="B23" s="120"/>
+    <row r="23" spans="1:28" s="13" customFormat="1" ht="129.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="109"/>
+      <c r="B23" s="140"/>
       <c r="C23" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="154"/>
-      <c r="E23" s="145"/>
-      <c r="F23" s="145"/>
-      <c r="G23" s="145"/>
-      <c r="H23" s="145"/>
-      <c r="I23" s="146"/>
-      <c r="J23" s="179" t="s">
-        <v>54</v>
-      </c>
-      <c r="K23" s="180"/>
-      <c r="L23" s="180"/>
-      <c r="M23" s="180"/>
-      <c r="N23" s="181"/>
+      <c r="D23" s="143"/>
+      <c r="E23" s="144"/>
+      <c r="F23" s="144"/>
+      <c r="G23" s="144"/>
+      <c r="H23" s="144"/>
+      <c r="I23" s="145"/>
+      <c r="J23" s="149" t="s">
+        <v>53</v>
+      </c>
+      <c r="K23" s="150"/>
+      <c r="L23" s="150"/>
+      <c r="M23" s="150"/>
+      <c r="N23" s="151"/>
       <c r="O23" s="12"/>
       <c r="P23" s="12"/>
       <c r="Q23" s="12"/>
@@ -3495,25 +3535,25 @@
       <c r="AA23" s="12"/>
       <c r="AB23" s="12"/>
     </row>
-    <row r="24" spans="1:28" s="13" customFormat="1" ht="114" customHeight="1">
-      <c r="A24" s="112"/>
-      <c r="B24" s="120"/>
+    <row r="24" spans="1:28" s="13" customFormat="1" ht="114" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="109"/>
+      <c r="B24" s="140"/>
       <c r="C24" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="154"/>
-      <c r="E24" s="145"/>
-      <c r="F24" s="145"/>
-      <c r="G24" s="145"/>
-      <c r="H24" s="145"/>
-      <c r="I24" s="146"/>
-      <c r="J24" s="159" t="s">
-        <v>55</v>
-      </c>
-      <c r="K24" s="160"/>
-      <c r="L24" s="160"/>
-      <c r="M24" s="160"/>
-      <c r="N24" s="161"/>
+      <c r="D24" s="143"/>
+      <c r="E24" s="144"/>
+      <c r="F24" s="144"/>
+      <c r="G24" s="144"/>
+      <c r="H24" s="144"/>
+      <c r="I24" s="145"/>
+      <c r="J24" s="123" t="s">
+        <v>54</v>
+      </c>
+      <c r="K24" s="124"/>
+      <c r="L24" s="124"/>
+      <c r="M24" s="124"/>
+      <c r="N24" s="125"/>
       <c r="O24" s="12"/>
       <c r="P24" s="12"/>
       <c r="Q24" s="12"/>
@@ -3529,9 +3569,9 @@
       <c r="AA24" s="12"/>
       <c r="AB24" s="12"/>
     </row>
-    <row r="25" spans="1:28" s="10" customFormat="1" ht="119.25" customHeight="1">
-      <c r="A25" s="112"/>
-      <c r="B25" s="120"/>
+    <row r="25" spans="1:28" s="10" customFormat="1" ht="119.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="109"/>
+      <c r="B25" s="140"/>
       <c r="C25" s="11" t="s">
         <v>22</v>
       </c>
@@ -3541,13 +3581,13 @@
       <c r="G25" s="96"/>
       <c r="H25" s="96"/>
       <c r="I25" s="97"/>
-      <c r="J25" s="150" t="s">
+      <c r="J25" s="126" t="s">
         <v>46</v>
       </c>
-      <c r="K25" s="109"/>
-      <c r="L25" s="109"/>
-      <c r="M25" s="109"/>
-      <c r="N25" s="110"/>
+      <c r="K25" s="127"/>
+      <c r="L25" s="127"/>
+      <c r="M25" s="127"/>
+      <c r="N25" s="128"/>
       <c r="O25" s="9"/>
       <c r="P25" s="9"/>
       <c r="Q25" s="9"/>
@@ -3563,9 +3603,9 @@
       <c r="AA25" s="9"/>
       <c r="AB25" s="9"/>
     </row>
-    <row r="26" spans="1:28" s="10" customFormat="1" ht="25.5" customHeight="1" thickBot="1">
-      <c r="A26" s="112"/>
-      <c r="B26" s="120"/>
+    <row r="26" spans="1:28" s="10" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="109"/>
+      <c r="B26" s="140"/>
       <c r="C26" s="14" t="s">
         <v>23</v>
       </c>
@@ -3595,31 +3635,31 @@
       <c r="AA26" s="9"/>
       <c r="AB26" s="9"/>
     </row>
-    <row r="27" spans="1:28" s="13" customFormat="1" ht="117.75" customHeight="1" thickTop="1">
-      <c r="A27" s="173" t="s">
-        <v>56</v>
-      </c>
-      <c r="B27" s="122" t="s">
+    <row r="27" spans="1:28" s="13" customFormat="1" ht="117.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="129" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="131" t="s">
         <v>17</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="138" t="s">
+      <c r="D27" s="132" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27" s="133"/>
+      <c r="F27" s="133"/>
+      <c r="G27" s="133"/>
+      <c r="H27" s="133"/>
+      <c r="I27" s="134"/>
+      <c r="J27" s="135" t="s">
         <v>57</v>
       </c>
-      <c r="E27" s="139"/>
-      <c r="F27" s="139"/>
-      <c r="G27" s="139"/>
-      <c r="H27" s="139"/>
-      <c r="I27" s="140"/>
-      <c r="J27" s="141" t="s">
-        <v>58</v>
-      </c>
-      <c r="K27" s="165"/>
-      <c r="L27" s="165"/>
-      <c r="M27" s="165"/>
-      <c r="N27" s="166"/>
+      <c r="K27" s="115"/>
+      <c r="L27" s="115"/>
+      <c r="M27" s="115"/>
+      <c r="N27" s="116"/>
       <c r="O27" s="12"/>
       <c r="U27" s="12"/>
       <c r="V27" s="12"/>
@@ -3630,25 +3670,25 @@
       <c r="AA27" s="12"/>
       <c r="AB27" s="12"/>
     </row>
-    <row r="28" spans="1:28" s="13" customFormat="1" ht="126.75" customHeight="1">
-      <c r="A28" s="112"/>
-      <c r="B28" s="115"/>
+    <row r="28" spans="1:28" s="13" customFormat="1" ht="126.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="109"/>
+      <c r="B28" s="112"/>
       <c r="C28" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="150" t="s">
-        <v>59</v>
-      </c>
-      <c r="E28" s="109"/>
-      <c r="F28" s="109"/>
-      <c r="G28" s="109"/>
-      <c r="H28" s="109"/>
-      <c r="I28" s="110"/>
-      <c r="J28" s="174"/>
-      <c r="K28" s="168"/>
-      <c r="L28" s="168"/>
-      <c r="M28" s="168"/>
-      <c r="N28" s="169"/>
+      <c r="D28" s="126" t="s">
+        <v>58</v>
+      </c>
+      <c r="E28" s="127"/>
+      <c r="F28" s="127"/>
+      <c r="G28" s="127"/>
+      <c r="H28" s="127"/>
+      <c r="I28" s="128"/>
+      <c r="J28" s="136"/>
+      <c r="K28" s="118"/>
+      <c r="L28" s="118"/>
+      <c r="M28" s="118"/>
+      <c r="N28" s="119"/>
       <c r="O28" s="12"/>
       <c r="P28" s="12"/>
       <c r="Q28" s="12"/>
@@ -3664,25 +3704,25 @@
       <c r="AA28" s="12"/>
       <c r="AB28" s="12"/>
     </row>
-    <row r="29" spans="1:28" s="13" customFormat="1" ht="118.5" customHeight="1">
-      <c r="A29" s="112"/>
-      <c r="B29" s="115"/>
+    <row r="29" spans="1:28" s="13" customFormat="1" ht="118.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="109"/>
+      <c r="B29" s="112"/>
       <c r="C29" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D29" s="150" t="s">
-        <v>60</v>
-      </c>
-      <c r="E29" s="109"/>
-      <c r="F29" s="109"/>
-      <c r="G29" s="109"/>
-      <c r="H29" s="109"/>
-      <c r="I29" s="110"/>
-      <c r="J29" s="174"/>
-      <c r="K29" s="168"/>
-      <c r="L29" s="168"/>
-      <c r="M29" s="168"/>
-      <c r="N29" s="169"/>
+      <c r="D29" s="126" t="s">
+        <v>59</v>
+      </c>
+      <c r="E29" s="127"/>
+      <c r="F29" s="127"/>
+      <c r="G29" s="127"/>
+      <c r="H29" s="127"/>
+      <c r="I29" s="128"/>
+      <c r="J29" s="136"/>
+      <c r="K29" s="118"/>
+      <c r="L29" s="118"/>
+      <c r="M29" s="118"/>
+      <c r="N29" s="119"/>
       <c r="O29" s="12"/>
       <c r="P29" s="12"/>
       <c r="Q29" s="12"/>
@@ -3698,9 +3738,9 @@
       <c r="AA29" s="12"/>
       <c r="AB29" s="12"/>
     </row>
-    <row r="30" spans="1:28" s="13" customFormat="1" ht="48.75" customHeight="1">
-      <c r="A30" s="112"/>
-      <c r="B30" s="115"/>
+    <row r="30" spans="1:28" s="13" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="109"/>
+      <c r="B30" s="112"/>
       <c r="C30" s="11" t="s">
         <v>22</v>
       </c>
@@ -3710,11 +3750,11 @@
       <c r="G30" s="81"/>
       <c r="H30" s="81"/>
       <c r="I30" s="102"/>
-      <c r="J30" s="175"/>
-      <c r="K30" s="171"/>
-      <c r="L30" s="171"/>
-      <c r="M30" s="171"/>
-      <c r="N30" s="172"/>
+      <c r="J30" s="137"/>
+      <c r="K30" s="121"/>
+      <c r="L30" s="121"/>
+      <c r="M30" s="121"/>
+      <c r="N30" s="122"/>
       <c r="O30" s="12"/>
       <c r="P30" s="12"/>
       <c r="Q30" s="12"/>
@@ -3730,9 +3770,9 @@
       <c r="AA30" s="12"/>
       <c r="AB30" s="12"/>
     </row>
-    <row r="31" spans="1:28" s="13" customFormat="1" ht="25.5" customHeight="1" thickBot="1">
-      <c r="A31" s="152"/>
-      <c r="B31" s="115"/>
+    <row r="31" spans="1:28" s="13" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="130"/>
+      <c r="B31" s="112"/>
       <c r="C31" s="16" t="s">
         <v>23</v>
       </c>
@@ -3761,24 +3801,24 @@
       <c r="AA31" s="12"/>
       <c r="AB31" s="12"/>
     </row>
-    <row r="32" spans="1:28" s="13" customFormat="1" ht="61.5" customHeight="1" thickTop="1">
-      <c r="A32" s="111" t="s">
-        <v>61</v>
-      </c>
-      <c r="B32" s="114" t="s">
+    <row r="32" spans="1:28" s="13" customFormat="1" ht="61.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="108" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" s="111" t="s">
         <v>18</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D32" s="153" t="s">
-        <v>62</v>
-      </c>
-      <c r="E32" s="165"/>
-      <c r="F32" s="165"/>
-      <c r="G32" s="165"/>
-      <c r="H32" s="165"/>
-      <c r="I32" s="166"/>
+      <c r="D32" s="114" t="s">
+        <v>61</v>
+      </c>
+      <c r="E32" s="115"/>
+      <c r="F32" s="115"/>
+      <c r="G32" s="115"/>
+      <c r="H32" s="115"/>
+      <c r="I32" s="116"/>
       <c r="J32" s="79"/>
       <c r="K32" s="82"/>
       <c r="L32" s="70"/>
@@ -3794,18 +3834,18 @@
       <c r="AA32" s="12"/>
       <c r="AB32" s="12"/>
     </row>
-    <row r="33" spans="1:28" s="13" customFormat="1" ht="62.25" customHeight="1">
-      <c r="A33" s="112"/>
-      <c r="B33" s="115"/>
+    <row r="33" spans="1:28" s="13" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="109"/>
+      <c r="B33" s="112"/>
       <c r="C33" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D33" s="167"/>
-      <c r="E33" s="168"/>
-      <c r="F33" s="168"/>
-      <c r="G33" s="168"/>
-      <c r="H33" s="168"/>
-      <c r="I33" s="169"/>
+      <c r="D33" s="117"/>
+      <c r="E33" s="118"/>
+      <c r="F33" s="118"/>
+      <c r="G33" s="118"/>
+      <c r="H33" s="118"/>
+      <c r="I33" s="119"/>
       <c r="J33" s="103"/>
       <c r="K33" s="87"/>
       <c r="L33" s="25"/>
@@ -3822,18 +3862,18 @@
       <c r="AA33" s="12"/>
       <c r="AB33" s="12"/>
     </row>
-    <row r="34" spans="1:28" s="13" customFormat="1" ht="55.5" customHeight="1">
-      <c r="A34" s="112"/>
-      <c r="B34" s="115"/>
+    <row r="34" spans="1:28" s="13" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="109"/>
+      <c r="B34" s="112"/>
       <c r="C34" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D34" s="167"/>
-      <c r="E34" s="168"/>
-      <c r="F34" s="168"/>
-      <c r="G34" s="168"/>
-      <c r="H34" s="168"/>
-      <c r="I34" s="169"/>
+      <c r="D34" s="117"/>
+      <c r="E34" s="118"/>
+      <c r="F34" s="118"/>
+      <c r="G34" s="118"/>
+      <c r="H34" s="118"/>
+      <c r="I34" s="119"/>
       <c r="J34" s="106"/>
       <c r="K34" s="51"/>
       <c r="L34" s="49"/>
@@ -3850,18 +3890,18 @@
       <c r="AA34" s="12"/>
       <c r="AB34" s="12"/>
     </row>
-    <row r="35" spans="1:28" s="13" customFormat="1" ht="52.5" customHeight="1">
-      <c r="A35" s="112"/>
-      <c r="B35" s="115"/>
+    <row r="35" spans="1:28" s="13" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="109"/>
+      <c r="B35" s="112"/>
       <c r="C35" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D35" s="170"/>
-      <c r="E35" s="171"/>
-      <c r="F35" s="171"/>
-      <c r="G35" s="171"/>
-      <c r="H35" s="171"/>
-      <c r="I35" s="172"/>
+      <c r="D35" s="120"/>
+      <c r="E35" s="121"/>
+      <c r="F35" s="121"/>
+      <c r="G35" s="121"/>
+      <c r="H35" s="121"/>
+      <c r="I35" s="122"/>
       <c r="J35" s="87"/>
       <c r="K35" s="107"/>
       <c r="L35" s="96"/>
@@ -3882,9 +3922,9 @@
       <c r="AA35" s="12"/>
       <c r="AB35" s="12"/>
     </row>
-    <row r="36" spans="1:28" s="13" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="A36" s="113"/>
-      <c r="B36" s="116"/>
+    <row r="36" spans="1:28" s="13" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="110"/>
+      <c r="B36" s="113"/>
       <c r="C36" s="14" t="s">
         <v>23</v>
       </c>
@@ -3914,7 +3954,7 @@
       <c r="AA36" s="12"/>
       <c r="AB36" s="12"/>
     </row>
-    <row r="37" spans="1:28" s="10" customFormat="1" ht="88.5" customHeight="1" thickTop="1">
+    <row r="37" spans="1:28" s="10" customFormat="1" ht="88.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A37" s="13"/>
       <c r="B37" s="17"/>
       <c r="C37" s="18"/>
@@ -3932,7 +3972,7 @@
       <c r="AA37" s="9"/>
       <c r="AB37" s="9"/>
     </row>
-    <row r="38" spans="1:28" s="13" customFormat="1" ht="79.5" customHeight="1">
+    <row r="38" spans="1:28" s="13" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C38" s="19"/>
       <c r="O38" s="12"/>
       <c r="P38" s="12"/>
@@ -3944,7 +3984,7 @@
       <c r="AA38" s="12"/>
       <c r="AB38" s="12"/>
     </row>
-    <row r="39" spans="1:28" s="13" customFormat="1" ht="76.5" customHeight="1">
+    <row r="39" spans="1:28" s="13" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="O39" s="12"/>
       <c r="P39" s="12"/>
       <c r="V39" s="12"/>
@@ -3955,7 +3995,7 @@
       <c r="AA39" s="12"/>
       <c r="AB39" s="12"/>
     </row>
-    <row r="40" spans="1:28" s="13" customFormat="1" ht="76.5" customHeight="1">
+    <row r="40" spans="1:28" s="13" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="O40" s="12"/>
       <c r="P40" s="12"/>
       <c r="Q40" s="12"/>
@@ -3971,7 +4011,7 @@
       <c r="AA40" s="12"/>
       <c r="AB40" s="12"/>
     </row>
-    <row r="41" spans="1:28" s="13" customFormat="1" ht="9.75" customHeight="1">
+    <row r="41" spans="1:28" s="13" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D41" s="18"/>
       <c r="E41" s="34"/>
       <c r="F41" s="35"/>
@@ -3993,7 +4033,7 @@
       <c r="AA41" s="12"/>
       <c r="AB41" s="12"/>
     </row>
-    <row r="42" spans="1:28" s="13" customFormat="1" ht="3" customHeight="1">
+    <row r="42" spans="1:28" s="13" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D42" s="38"/>
       <c r="E42" s="39"/>
       <c r="F42" s="39"/>
@@ -4020,13 +4060,13 @@
       <c r="AA42" s="12"/>
       <c r="AB42" s="12"/>
     </row>
-    <row r="43" spans="1:28" s="13" customFormat="1" ht="16.5" customHeight="1">
+    <row r="43" spans="1:28" s="13" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D43" s="44"/>
       <c r="E43" s="44"/>
       <c r="F43" s="44"/>
       <c r="G43" s="44"/>
     </row>
-    <row r="44" spans="1:28">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.35">
       <c r="D44" s="20"/>
       <c r="E44" s="21"/>
       <c r="F44" s="21"/>
@@ -4037,7 +4077,7 @@
       <c r="M44" s="22"/>
       <c r="N44" s="22"/>
     </row>
-    <row r="45" spans="1:28" ht="12.75" hidden="1" customHeight="1">
+    <row r="45" spans="1:28" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D45" s="20"/>
       <c r="E45" s="21"/>
       <c r="F45" s="21"/>
@@ -4050,7 +4090,7 @@
       <c r="M45" s="22"/>
       <c r="N45" s="22"/>
     </row>
-    <row r="46" spans="1:28" ht="1.5" customHeight="1">
+    <row r="46" spans="1:28" ht="1.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D46" s="20"/>
       <c r="E46" s="21"/>
       <c r="F46" s="21"/>
@@ -4063,7 +4103,7 @@
       <c r="M46" s="22"/>
       <c r="N46" s="22"/>
     </row>
-    <row r="47" spans="1:28">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.35">
       <c r="D47" s="20"/>
       <c r="E47" s="21"/>
       <c r="F47" s="21"/>
@@ -4076,7 +4116,7 @@
       <c r="M47" s="22"/>
       <c r="N47" s="22"/>
     </row>
-    <row r="48" spans="1:28">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.35">
       <c r="D48" s="22"/>
       <c r="E48" s="23"/>
       <c r="F48" s="23"/>
@@ -4091,6 +4131,32 @@
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="C2:N2"/>
+    <mergeCell ref="D3:N3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="J7:N9"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="J10:N10"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="D12:I14"/>
+    <mergeCell ref="J12:N12"/>
+    <mergeCell ref="J13:N13"/>
+    <mergeCell ref="J14:N14"/>
+    <mergeCell ref="D15:I15"/>
+    <mergeCell ref="J15:N15"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="J17:N19"/>
+    <mergeCell ref="D18:I18"/>
+    <mergeCell ref="D19:I19"/>
     <mergeCell ref="A32:A36"/>
     <mergeCell ref="B32:B36"/>
     <mergeCell ref="D32:I35"/>
@@ -4107,32 +4173,6 @@
     <mergeCell ref="D22:I24"/>
     <mergeCell ref="J22:N22"/>
     <mergeCell ref="J23:N23"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="B17:B21"/>
-    <mergeCell ref="J17:N19"/>
-    <mergeCell ref="D18:I18"/>
-    <mergeCell ref="D19:I19"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="D12:I14"/>
-    <mergeCell ref="J12:N12"/>
-    <mergeCell ref="J13:N13"/>
-    <mergeCell ref="J14:N14"/>
-    <mergeCell ref="D15:I15"/>
-    <mergeCell ref="J15:N15"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="J7:N9"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="J10:N10"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="C2:N2"/>
-    <mergeCell ref="D3:N3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
   </mergeCells>
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="18" orientation="portrait" r:id="rId1"/>
